--- a/例題.xlsx
+++ b/例題.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsasaki\Documents\AI講座\excel_deeplearning_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D19FC4-6C87-4464-85FF-1439C0F8FCC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BACEE53-E109-47D3-849B-3B421F8E15B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,13 +378,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>［ファイル］→［オプション］→［アドイン］→Excelアドインの設定→ソルバーアドイン</t>
-    <rPh sb="32" eb="34">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>←これを最小にしたい</t>
     <rPh sb="4" eb="6">
       <t>サイショウ</t>
@@ -404,6 +397,16 @@
     </rPh>
     <rPh sb="6" eb="11">
       <t>サイショウジジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>［ファイル］→［オプション］→［アドイン］→管理：Excelアドインの［設定］→ソルバーアドイン</t>
+    <rPh sb="22" eb="24">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1275,13 +1278,46 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1293,10 +1329,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1316,9 +1355,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1367,39 +1403,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3054,8 +3057,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="テキスト ボックス 2">
@@ -3104,6 +3107,7 @@
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3148,7 +3152,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="テキスト ボックス 2">
@@ -3224,8 +3228,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>149577</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="テキスト ボックス 3">
@@ -3403,7 +3407,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="テキスト ボックス 3">
@@ -3560,6 +3564,136 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E815E8-B9E3-4F1C-849D-5C872E8EEADF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4933950" y="685800"/>
+          <a:ext cx="514350" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>体重</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC79D45-CE5A-4D5F-9556-3835C17CB048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9344025" y="2733675"/>
+          <a:ext cx="514350" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>身長</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3828,10 +3962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C71386F-D57A-4335-8255-06871B6E468B}">
-  <dimension ref="B1:G17"/>
+  <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3843,57 +3977,57 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B1" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
     </row>
     <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="145">
-        <v>1</v>
-      </c>
-      <c r="F3" s="143"/>
+      <c r="C3" s="114">
+        <v>1</v>
+      </c>
+      <c r="F3" s="112"/>
     </row>
     <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="145">
-        <v>1</v>
-      </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="143"/>
+      <c r="C4" s="114">
+        <v>1</v>
+      </c>
+      <c r="D4" s="115"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="112"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="143"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
     </row>
     <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="148" t="s">
+      <c r="D6" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="151" t="s">
+      <c r="E6" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="149" t="s">
+      <c r="F6" s="118" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3901,17 +4035,17 @@
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="150">
+      <c r="C7" s="119">
         <v>153.30000000000001</v>
       </c>
-      <c r="D7" s="150">
+      <c r="D7" s="119">
         <v>45.5</v>
       </c>
-      <c r="E7" s="150">
+      <c r="E7" s="119">
         <f>$C$3*C7+$C$4</f>
         <v>154.30000000000001</v>
       </c>
-      <c r="F7" s="150">
+      <c r="F7" s="119">
         <f>(D7-E7)^2</f>
         <v>11837.440000000002</v>
       </c>
@@ -3920,17 +4054,17 @@
       <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="150">
+      <c r="C8" s="119">
         <v>164.9</v>
       </c>
-      <c r="D8" s="150">
+      <c r="D8" s="119">
         <v>56</v>
       </c>
-      <c r="E8" s="150">
+      <c r="E8" s="119">
         <f t="shared" ref="E8:E13" si="0">$C$3*C8+$C$4</f>
         <v>165.9</v>
       </c>
-      <c r="F8" s="150">
+      <c r="F8" s="119">
         <f t="shared" ref="F8:F13" si="1">(D8-E8)^2</f>
         <v>12078.010000000002</v>
       </c>
@@ -3939,17 +4073,17 @@
       <c r="B9" s="6">
         <v>3</v>
       </c>
-      <c r="C9" s="150">
+      <c r="C9" s="119">
         <v>168.1</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="119">
         <v>55</v>
       </c>
-      <c r="E9" s="150">
+      <c r="E9" s="119">
         <f t="shared" si="0"/>
         <v>169.1</v>
       </c>
-      <c r="F9" s="150">
+      <c r="F9" s="119">
         <f t="shared" si="1"/>
         <v>13018.81</v>
       </c>
@@ -3958,17 +4092,17 @@
       <c r="B10" s="6">
         <v>4</v>
       </c>
-      <c r="C10" s="150">
+      <c r="C10" s="119">
         <v>151.5</v>
       </c>
-      <c r="D10" s="150">
+      <c r="D10" s="119">
         <v>52.8</v>
       </c>
-      <c r="E10" s="150">
+      <c r="E10" s="119">
         <f t="shared" si="0"/>
         <v>152.5</v>
       </c>
-      <c r="F10" s="150">
+      <c r="F10" s="119">
         <f t="shared" si="1"/>
         <v>9940.09</v>
       </c>
@@ -3977,17 +4111,17 @@
       <c r="B11" s="6">
         <v>5</v>
       </c>
-      <c r="C11" s="150">
+      <c r="C11" s="119">
         <v>157.80000000000001</v>
       </c>
-      <c r="D11" s="150">
+      <c r="D11" s="119">
         <v>55.6</v>
       </c>
-      <c r="E11" s="150">
+      <c r="E11" s="119">
         <f t="shared" si="0"/>
         <v>158.80000000000001</v>
       </c>
-      <c r="F11" s="150">
+      <c r="F11" s="119">
         <f t="shared" si="1"/>
         <v>10650.240000000003</v>
       </c>
@@ -3996,17 +4130,17 @@
       <c r="B12" s="6">
         <v>6</v>
       </c>
-      <c r="C12" s="150">
+      <c r="C12" s="119">
         <v>156.69999999999999</v>
       </c>
-      <c r="D12" s="150">
+      <c r="D12" s="119">
         <v>50.8</v>
       </c>
-      <c r="E12" s="150">
+      <c r="E12" s="119">
         <f t="shared" si="0"/>
         <v>157.69999999999999</v>
       </c>
-      <c r="F12" s="150">
+      <c r="F12" s="119">
         <f t="shared" si="1"/>
         <v>11427.609999999999</v>
       </c>
@@ -4015,17 +4149,17 @@
       <c r="B13" s="6">
         <v>7</v>
       </c>
-      <c r="C13" s="150">
+      <c r="C13" s="119">
         <v>161.1</v>
       </c>
-      <c r="D13" s="150">
+      <c r="D13" s="119">
         <v>56.4</v>
       </c>
-      <c r="E13" s="150">
+      <c r="E13" s="119">
         <f t="shared" si="0"/>
         <v>162.1</v>
       </c>
-      <c r="F13" s="150">
+      <c r="F13" s="119">
         <f t="shared" si="1"/>
         <v>11172.489999999998</v>
       </c>
@@ -4034,17 +4168,17 @@
       <c r="E14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="150">
+      <c r="F14" s="119">
         <f>SUM(F7:F13)</f>
         <v>80124.69</v>
       </c>
-      <c r="G14" s="153" t="s">
-        <v>37</v>
+      <c r="G14" s="122" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="152" t="s">
-        <v>36</v>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="121" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4095,399 +4229,399 @@
       </c>
     </row>
     <row r="4" spans="2:201" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H4" s="112" t="s">
+      <c r="H4" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="113"/>
-      <c r="J4" s="118">
-        <v>1</v>
-      </c>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="118">
+      <c r="I4" s="131"/>
+      <c r="J4" s="123">
+        <v>1</v>
+      </c>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="123">
         <f>J4+1</f>
         <v>2</v>
       </c>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="118">
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="123">
         <f>M4+1</f>
         <v>3</v>
       </c>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="118">
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="123">
         <f>P4+1</f>
         <v>4</v>
       </c>
-      <c r="T4" s="119"/>
-      <c r="U4" s="119"/>
-      <c r="V4" s="118">
+      <c r="T4" s="124"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="123">
         <f>S4+1</f>
         <v>5</v>
       </c>
-      <c r="W4" s="119"/>
-      <c r="X4" s="119"/>
-      <c r="Y4" s="118">
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="123">
         <f>V4+1</f>
         <v>6</v>
       </c>
-      <c r="Z4" s="119"/>
-      <c r="AA4" s="119"/>
-      <c r="AB4" s="118">
+      <c r="Z4" s="124"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="123">
         <f>Y4+1</f>
         <v>7</v>
       </c>
-      <c r="AC4" s="119"/>
-      <c r="AD4" s="119"/>
-      <c r="AE4" s="118">
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="123">
         <f>AB4+1</f>
         <v>8</v>
       </c>
-      <c r="AF4" s="119"/>
-      <c r="AG4" s="119"/>
-      <c r="AH4" s="118">
+      <c r="AF4" s="124"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="123">
         <f>AE4+1</f>
         <v>9</v>
       </c>
-      <c r="AI4" s="119"/>
-      <c r="AJ4" s="119"/>
-      <c r="AK4" s="118">
+      <c r="AI4" s="124"/>
+      <c r="AJ4" s="124"/>
+      <c r="AK4" s="123">
         <f>AH4+1</f>
         <v>10</v>
       </c>
-      <c r="AL4" s="119"/>
-      <c r="AM4" s="119"/>
-      <c r="AN4" s="118">
+      <c r="AL4" s="124"/>
+      <c r="AM4" s="124"/>
+      <c r="AN4" s="123">
         <f>AK4+1</f>
         <v>11</v>
       </c>
-      <c r="AO4" s="119"/>
-      <c r="AP4" s="119"/>
-      <c r="AQ4" s="118">
+      <c r="AO4" s="124"/>
+      <c r="AP4" s="124"/>
+      <c r="AQ4" s="123">
         <f>AN4+1</f>
         <v>12</v>
       </c>
-      <c r="AR4" s="119"/>
-      <c r="AS4" s="119"/>
-      <c r="AT4" s="118">
+      <c r="AR4" s="124"/>
+      <c r="AS4" s="124"/>
+      <c r="AT4" s="123">
         <f>AQ4+1</f>
         <v>13</v>
       </c>
-      <c r="AU4" s="119"/>
-      <c r="AV4" s="119"/>
-      <c r="AW4" s="118">
+      <c r="AU4" s="124"/>
+      <c r="AV4" s="124"/>
+      <c r="AW4" s="123">
         <f>AT4+1</f>
         <v>14</v>
       </c>
-      <c r="AX4" s="119"/>
-      <c r="AY4" s="119"/>
-      <c r="AZ4" s="118">
+      <c r="AX4" s="124"/>
+      <c r="AY4" s="124"/>
+      <c r="AZ4" s="123">
         <f>AW4+1</f>
         <v>15</v>
       </c>
-      <c r="BA4" s="119"/>
-      <c r="BB4" s="119"/>
-      <c r="BC4" s="118">
+      <c r="BA4" s="124"/>
+      <c r="BB4" s="124"/>
+      <c r="BC4" s="123">
         <f>AZ4+1</f>
         <v>16</v>
       </c>
-      <c r="BD4" s="119"/>
-      <c r="BE4" s="119"/>
-      <c r="BF4" s="118">
+      <c r="BD4" s="124"/>
+      <c r="BE4" s="124"/>
+      <c r="BF4" s="123">
         <f>BC4+1</f>
         <v>17</v>
       </c>
-      <c r="BG4" s="119"/>
-      <c r="BH4" s="119"/>
-      <c r="BI4" s="118">
+      <c r="BG4" s="124"/>
+      <c r="BH4" s="124"/>
+      <c r="BI4" s="123">
         <f>BF4+1</f>
         <v>18</v>
       </c>
-      <c r="BJ4" s="119"/>
-      <c r="BK4" s="119"/>
-      <c r="BL4" s="118">
+      <c r="BJ4" s="124"/>
+      <c r="BK4" s="124"/>
+      <c r="BL4" s="123">
         <f>BI4+1</f>
         <v>19</v>
       </c>
-      <c r="BM4" s="119"/>
-      <c r="BN4" s="119"/>
-      <c r="BO4" s="118">
+      <c r="BM4" s="124"/>
+      <c r="BN4" s="124"/>
+      <c r="BO4" s="123">
         <f>BL4+1</f>
         <v>20</v>
       </c>
-      <c r="BP4" s="119"/>
-      <c r="BQ4" s="119"/>
-      <c r="BR4" s="118">
+      <c r="BP4" s="124"/>
+      <c r="BQ4" s="124"/>
+      <c r="BR4" s="123">
         <f>BO4+1</f>
         <v>21</v>
       </c>
-      <c r="BS4" s="119"/>
-      <c r="BT4" s="119"/>
-      <c r="BU4" s="118">
+      <c r="BS4" s="124"/>
+      <c r="BT4" s="124"/>
+      <c r="BU4" s="123">
         <f>BR4+1</f>
         <v>22</v>
       </c>
-      <c r="BV4" s="119"/>
-      <c r="BW4" s="119"/>
-      <c r="BX4" s="118">
+      <c r="BV4" s="124"/>
+      <c r="BW4" s="124"/>
+      <c r="BX4" s="123">
         <f>BU4+1</f>
         <v>23</v>
       </c>
-      <c r="BY4" s="119"/>
-      <c r="BZ4" s="119"/>
-      <c r="CA4" s="118">
+      <c r="BY4" s="124"/>
+      <c r="BZ4" s="124"/>
+      <c r="CA4" s="123">
         <f>BX4+1</f>
         <v>24</v>
       </c>
-      <c r="CB4" s="119"/>
-      <c r="CC4" s="119"/>
-      <c r="CD4" s="118">
+      <c r="CB4" s="124"/>
+      <c r="CC4" s="124"/>
+      <c r="CD4" s="123">
         <f>CA4+1</f>
         <v>25</v>
       </c>
-      <c r="CE4" s="119"/>
-      <c r="CF4" s="119"/>
-      <c r="CG4" s="118">
+      <c r="CE4" s="124"/>
+      <c r="CF4" s="124"/>
+      <c r="CG4" s="123">
         <f>CD4+1</f>
         <v>26</v>
       </c>
-      <c r="CH4" s="119"/>
-      <c r="CI4" s="119"/>
-      <c r="CJ4" s="118">
+      <c r="CH4" s="124"/>
+      <c r="CI4" s="124"/>
+      <c r="CJ4" s="123">
         <f>CG4+1</f>
         <v>27</v>
       </c>
-      <c r="CK4" s="119"/>
-      <c r="CL4" s="119"/>
-      <c r="CM4" s="118">
+      <c r="CK4" s="124"/>
+      <c r="CL4" s="124"/>
+      <c r="CM4" s="123">
         <f>CJ4+1</f>
         <v>28</v>
       </c>
-      <c r="CN4" s="119"/>
-      <c r="CO4" s="119"/>
-      <c r="CP4" s="118">
+      <c r="CN4" s="124"/>
+      <c r="CO4" s="124"/>
+      <c r="CP4" s="123">
         <f>CM4+1</f>
         <v>29</v>
       </c>
-      <c r="CQ4" s="119"/>
-      <c r="CR4" s="119"/>
-      <c r="CS4" s="118">
+      <c r="CQ4" s="124"/>
+      <c r="CR4" s="124"/>
+      <c r="CS4" s="123">
         <f>CP4+1</f>
         <v>30</v>
       </c>
-      <c r="CT4" s="119"/>
-      <c r="CU4" s="119"/>
-      <c r="CV4" s="118">
+      <c r="CT4" s="124"/>
+      <c r="CU4" s="124"/>
+      <c r="CV4" s="123">
         <f>CS4+1</f>
         <v>31</v>
       </c>
-      <c r="CW4" s="119"/>
-      <c r="CX4" s="119"/>
-      <c r="CY4" s="118">
+      <c r="CW4" s="124"/>
+      <c r="CX4" s="124"/>
+      <c r="CY4" s="123">
         <f>CV4+1</f>
         <v>32</v>
       </c>
-      <c r="CZ4" s="119"/>
-      <c r="DA4" s="119"/>
-      <c r="DB4" s="118">
+      <c r="CZ4" s="124"/>
+      <c r="DA4" s="124"/>
+      <c r="DB4" s="123">
         <f>CY4+1</f>
         <v>33</v>
       </c>
-      <c r="DC4" s="119"/>
-      <c r="DD4" s="119"/>
-      <c r="DE4" s="118">
+      <c r="DC4" s="124"/>
+      <c r="DD4" s="124"/>
+      <c r="DE4" s="123">
         <f>DB4+1</f>
         <v>34</v>
       </c>
-      <c r="DF4" s="119"/>
-      <c r="DG4" s="119"/>
-      <c r="DH4" s="118">
+      <c r="DF4" s="124"/>
+      <c r="DG4" s="124"/>
+      <c r="DH4" s="123">
         <f>DE4+1</f>
         <v>35</v>
       </c>
-      <c r="DI4" s="119"/>
-      <c r="DJ4" s="119"/>
-      <c r="DK4" s="118">
+      <c r="DI4" s="124"/>
+      <c r="DJ4" s="124"/>
+      <c r="DK4" s="123">
         <f>DH4+1</f>
         <v>36</v>
       </c>
-      <c r="DL4" s="119"/>
-      <c r="DM4" s="119"/>
-      <c r="DN4" s="118">
+      <c r="DL4" s="124"/>
+      <c r="DM4" s="124"/>
+      <c r="DN4" s="123">
         <f>DK4+1</f>
         <v>37</v>
       </c>
-      <c r="DO4" s="119"/>
-      <c r="DP4" s="119"/>
-      <c r="DQ4" s="118">
+      <c r="DO4" s="124"/>
+      <c r="DP4" s="124"/>
+      <c r="DQ4" s="123">
         <f>DN4+1</f>
         <v>38</v>
       </c>
-      <c r="DR4" s="119"/>
-      <c r="DS4" s="119"/>
-      <c r="DT4" s="118">
+      <c r="DR4" s="124"/>
+      <c r="DS4" s="124"/>
+      <c r="DT4" s="123">
         <f>DQ4+1</f>
         <v>39</v>
       </c>
-      <c r="DU4" s="119"/>
-      <c r="DV4" s="119"/>
-      <c r="DW4" s="118">
+      <c r="DU4" s="124"/>
+      <c r="DV4" s="124"/>
+      <c r="DW4" s="123">
         <f>DT4+1</f>
         <v>40</v>
       </c>
-      <c r="DX4" s="119"/>
-      <c r="DY4" s="119"/>
-      <c r="DZ4" s="118">
+      <c r="DX4" s="124"/>
+      <c r="DY4" s="124"/>
+      <c r="DZ4" s="123">
         <f>DW4+1</f>
         <v>41</v>
       </c>
-      <c r="EA4" s="119"/>
-      <c r="EB4" s="119"/>
-      <c r="EC4" s="118">
+      <c r="EA4" s="124"/>
+      <c r="EB4" s="124"/>
+      <c r="EC4" s="123">
         <f>DZ4+1</f>
         <v>42</v>
       </c>
-      <c r="ED4" s="119"/>
-      <c r="EE4" s="119"/>
-      <c r="EF4" s="118">
+      <c r="ED4" s="124"/>
+      <c r="EE4" s="124"/>
+      <c r="EF4" s="123">
         <f>EC4+1</f>
         <v>43</v>
       </c>
-      <c r="EG4" s="119"/>
-      <c r="EH4" s="119"/>
-      <c r="EI4" s="118">
+      <c r="EG4" s="124"/>
+      <c r="EH4" s="124"/>
+      <c r="EI4" s="123">
         <f>EF4+1</f>
         <v>44</v>
       </c>
-      <c r="EJ4" s="119"/>
-      <c r="EK4" s="119"/>
-      <c r="EL4" s="118">
+      <c r="EJ4" s="124"/>
+      <c r="EK4" s="124"/>
+      <c r="EL4" s="123">
         <f>EI4+1</f>
         <v>45</v>
       </c>
-      <c r="EM4" s="119"/>
-      <c r="EN4" s="119"/>
-      <c r="EO4" s="118">
+      <c r="EM4" s="124"/>
+      <c r="EN4" s="124"/>
+      <c r="EO4" s="123">
         <f>EL4+1</f>
         <v>46</v>
       </c>
-      <c r="EP4" s="119"/>
-      <c r="EQ4" s="119"/>
-      <c r="ER4" s="118">
+      <c r="EP4" s="124"/>
+      <c r="EQ4" s="124"/>
+      <c r="ER4" s="123">
         <f>EO4+1</f>
         <v>47</v>
       </c>
-      <c r="ES4" s="119"/>
-      <c r="ET4" s="119"/>
-      <c r="EU4" s="118">
+      <c r="ES4" s="124"/>
+      <c r="ET4" s="124"/>
+      <c r="EU4" s="123">
         <f>ER4+1</f>
         <v>48</v>
       </c>
-      <c r="EV4" s="119"/>
-      <c r="EW4" s="119"/>
-      <c r="EX4" s="118">
+      <c r="EV4" s="124"/>
+      <c r="EW4" s="124"/>
+      <c r="EX4" s="123">
         <f>EU4+1</f>
         <v>49</v>
       </c>
-      <c r="EY4" s="119"/>
-      <c r="EZ4" s="119"/>
-      <c r="FA4" s="118">
+      <c r="EY4" s="124"/>
+      <c r="EZ4" s="124"/>
+      <c r="FA4" s="123">
         <f>EX4+1</f>
         <v>50</v>
       </c>
-      <c r="FB4" s="119"/>
-      <c r="FC4" s="119"/>
-      <c r="FD4" s="118">
+      <c r="FB4" s="124"/>
+      <c r="FC4" s="124"/>
+      <c r="FD4" s="123">
         <f>FA4+1</f>
         <v>51</v>
       </c>
-      <c r="FE4" s="119"/>
-      <c r="FF4" s="119"/>
-      <c r="FG4" s="118">
+      <c r="FE4" s="124"/>
+      <c r="FF4" s="124"/>
+      <c r="FG4" s="123">
         <f>FD4+1</f>
         <v>52</v>
       </c>
-      <c r="FH4" s="119"/>
-      <c r="FI4" s="119"/>
-      <c r="FJ4" s="118">
+      <c r="FH4" s="124"/>
+      <c r="FI4" s="124"/>
+      <c r="FJ4" s="123">
         <f>FG4+1</f>
         <v>53</v>
       </c>
-      <c r="FK4" s="119"/>
-      <c r="FL4" s="119"/>
-      <c r="FM4" s="118">
+      <c r="FK4" s="124"/>
+      <c r="FL4" s="124"/>
+      <c r="FM4" s="123">
         <f>FJ4+1</f>
         <v>54</v>
       </c>
-      <c r="FN4" s="119"/>
-      <c r="FO4" s="119"/>
-      <c r="FP4" s="118">
+      <c r="FN4" s="124"/>
+      <c r="FO4" s="124"/>
+      <c r="FP4" s="123">
         <f>FM4+1</f>
         <v>55</v>
       </c>
-      <c r="FQ4" s="119"/>
-      <c r="FR4" s="119"/>
-      <c r="FS4" s="118">
+      <c r="FQ4" s="124"/>
+      <c r="FR4" s="124"/>
+      <c r="FS4" s="123">
         <f>FP4+1</f>
         <v>56</v>
       </c>
-      <c r="FT4" s="119"/>
-      <c r="FU4" s="119"/>
-      <c r="FV4" s="118">
+      <c r="FT4" s="124"/>
+      <c r="FU4" s="124"/>
+      <c r="FV4" s="123">
         <f>FS4+1</f>
         <v>57</v>
       </c>
-      <c r="FW4" s="119"/>
-      <c r="FX4" s="119"/>
-      <c r="FY4" s="118">
+      <c r="FW4" s="124"/>
+      <c r="FX4" s="124"/>
+      <c r="FY4" s="123">
         <f>FV4+1</f>
         <v>58</v>
       </c>
-      <c r="FZ4" s="119"/>
-      <c r="GA4" s="119"/>
-      <c r="GB4" s="118">
+      <c r="FZ4" s="124"/>
+      <c r="GA4" s="124"/>
+      <c r="GB4" s="123">
         <f>FY4+1</f>
         <v>59</v>
       </c>
-      <c r="GC4" s="119"/>
-      <c r="GD4" s="119"/>
-      <c r="GE4" s="118">
+      <c r="GC4" s="124"/>
+      <c r="GD4" s="124"/>
+      <c r="GE4" s="123">
         <f>GB4+1</f>
         <v>60</v>
       </c>
-      <c r="GF4" s="119"/>
-      <c r="GG4" s="119"/>
-      <c r="GH4" s="118">
+      <c r="GF4" s="124"/>
+      <c r="GG4" s="124"/>
+      <c r="GH4" s="123">
         <f>GE4+1</f>
         <v>61</v>
       </c>
-      <c r="GI4" s="119"/>
-      <c r="GJ4" s="119"/>
-      <c r="GK4" s="118">
+      <c r="GI4" s="124"/>
+      <c r="GJ4" s="124"/>
+      <c r="GK4" s="123">
         <f>GH4+1</f>
         <v>62</v>
       </c>
-      <c r="GL4" s="119"/>
-      <c r="GM4" s="119"/>
-      <c r="GN4" s="118">
+      <c r="GL4" s="124"/>
+      <c r="GM4" s="124"/>
+      <c r="GN4" s="123">
         <f>GK4+1</f>
         <v>63</v>
       </c>
-      <c r="GO4" s="119"/>
-      <c r="GP4" s="119"/>
-      <c r="GQ4" s="118">
+      <c r="GO4" s="124"/>
+      <c r="GP4" s="124"/>
+      <c r="GQ4" s="123">
         <f>GN4+1</f>
         <v>64</v>
       </c>
-      <c r="GR4" s="119"/>
-      <c r="GS4" s="126"/>
+      <c r="GR4" s="124"/>
+      <c r="GS4" s="125"/>
     </row>
     <row r="5" spans="2:201" x14ac:dyDescent="0.15">
-      <c r="H5" s="120" t="s">
+      <c r="H5" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="121"/>
+      <c r="I5" s="133"/>
       <c r="J5" s="7">
         <v>1</v>
       </c>
@@ -5066,8 +5200,8 @@
       </c>
     </row>
     <row r="6" spans="2:201" x14ac:dyDescent="0.15">
-      <c r="H6" s="122"/>
-      <c r="I6" s="123"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="135"/>
       <c r="J6" s="10">
         <v>1</v>
       </c>
@@ -5646,8 +5780,8 @@
       </c>
     </row>
     <row r="7" spans="2:201" x14ac:dyDescent="0.15">
-      <c r="H7" s="122"/>
-      <c r="I7" s="123"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="135"/>
       <c r="J7" s="10">
         <v>1</v>
       </c>
@@ -6226,8 +6360,8 @@
       </c>
     </row>
     <row r="8" spans="2:201" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H8" s="124"/>
-      <c r="I8" s="125"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="137"/>
       <c r="J8" s="12">
         <v>1</v>
       </c>
@@ -6806,10 +6940,10 @@
       </c>
     </row>
     <row r="9" spans="2:201" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="H9" s="112" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="113"/>
+      <c r="H9" s="129" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="131"/>
       <c r="J9" s="32" t="s">
         <v>9</v>
       </c>
@@ -7143,390 +7277,390 @@
       <c r="I15" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="112">
+      <c r="J15" s="129">
         <f>J4</f>
         <v>1</v>
       </c>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="112">
+      <c r="K15" s="130"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="129">
         <f>M4</f>
         <v>2</v>
       </c>
-      <c r="N15" s="114"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="112">
+      <c r="N15" s="130"/>
+      <c r="O15" s="130"/>
+      <c r="P15" s="129">
         <f>P4</f>
         <v>3</v>
       </c>
-      <c r="Q15" s="114"/>
-      <c r="R15" s="114"/>
-      <c r="S15" s="112">
+      <c r="Q15" s="130"/>
+      <c r="R15" s="130"/>
+      <c r="S15" s="129">
         <f>S4</f>
         <v>4</v>
       </c>
-      <c r="T15" s="114"/>
-      <c r="U15" s="114"/>
-      <c r="V15" s="112">
+      <c r="T15" s="130"/>
+      <c r="U15" s="130"/>
+      <c r="V15" s="129">
         <f>V4</f>
         <v>5</v>
       </c>
-      <c r="W15" s="114"/>
-      <c r="X15" s="114"/>
-      <c r="Y15" s="112">
+      <c r="W15" s="130"/>
+      <c r="X15" s="130"/>
+      <c r="Y15" s="129">
         <f>Y4</f>
         <v>6</v>
       </c>
-      <c r="Z15" s="114"/>
-      <c r="AA15" s="114"/>
-      <c r="AB15" s="112">
+      <c r="Z15" s="130"/>
+      <c r="AA15" s="130"/>
+      <c r="AB15" s="129">
         <f>AB4</f>
         <v>7</v>
       </c>
-      <c r="AC15" s="114"/>
-      <c r="AD15" s="114"/>
-      <c r="AE15" s="112">
+      <c r="AC15" s="130"/>
+      <c r="AD15" s="130"/>
+      <c r="AE15" s="129">
         <f>AE4</f>
         <v>8</v>
       </c>
-      <c r="AF15" s="114"/>
-      <c r="AG15" s="114"/>
-      <c r="AH15" s="112">
+      <c r="AF15" s="130"/>
+      <c r="AG15" s="130"/>
+      <c r="AH15" s="129">
         <f>AH4</f>
         <v>9</v>
       </c>
-      <c r="AI15" s="114"/>
-      <c r="AJ15" s="114"/>
-      <c r="AK15" s="112">
+      <c r="AI15" s="130"/>
+      <c r="AJ15" s="130"/>
+      <c r="AK15" s="129">
         <f>AK4</f>
         <v>10</v>
       </c>
-      <c r="AL15" s="114"/>
-      <c r="AM15" s="114"/>
-      <c r="AN15" s="112">
+      <c r="AL15" s="130"/>
+      <c r="AM15" s="130"/>
+      <c r="AN15" s="129">
         <f>AN4</f>
         <v>11</v>
       </c>
-      <c r="AO15" s="114"/>
-      <c r="AP15" s="114"/>
-      <c r="AQ15" s="112">
+      <c r="AO15" s="130"/>
+      <c r="AP15" s="130"/>
+      <c r="AQ15" s="129">
         <f>AQ4</f>
         <v>12</v>
       </c>
-      <c r="AR15" s="114"/>
-      <c r="AS15" s="114"/>
-      <c r="AT15" s="112">
+      <c r="AR15" s="130"/>
+      <c r="AS15" s="130"/>
+      <c r="AT15" s="129">
         <f>AT4</f>
         <v>13</v>
       </c>
-      <c r="AU15" s="114"/>
-      <c r="AV15" s="114"/>
-      <c r="AW15" s="112">
+      <c r="AU15" s="130"/>
+      <c r="AV15" s="130"/>
+      <c r="AW15" s="129">
         <f>AW4</f>
         <v>14</v>
       </c>
-      <c r="AX15" s="114"/>
-      <c r="AY15" s="114"/>
-      <c r="AZ15" s="112">
+      <c r="AX15" s="130"/>
+      <c r="AY15" s="130"/>
+      <c r="AZ15" s="129">
         <f>AZ4</f>
         <v>15</v>
       </c>
-      <c r="BA15" s="114"/>
-      <c r="BB15" s="114"/>
-      <c r="BC15" s="112">
+      <c r="BA15" s="130"/>
+      <c r="BB15" s="130"/>
+      <c r="BC15" s="129">
         <f>BC4</f>
         <v>16</v>
       </c>
-      <c r="BD15" s="114"/>
-      <c r="BE15" s="114"/>
-      <c r="BF15" s="112">
+      <c r="BD15" s="130"/>
+      <c r="BE15" s="130"/>
+      <c r="BF15" s="129">
         <f>BF4</f>
         <v>17</v>
       </c>
-      <c r="BG15" s="114"/>
-      <c r="BH15" s="114"/>
-      <c r="BI15" s="112">
+      <c r="BG15" s="130"/>
+      <c r="BH15" s="130"/>
+      <c r="BI15" s="129">
         <f>BI4</f>
         <v>18</v>
       </c>
-      <c r="BJ15" s="114"/>
-      <c r="BK15" s="114"/>
-      <c r="BL15" s="112">
+      <c r="BJ15" s="130"/>
+      <c r="BK15" s="130"/>
+      <c r="BL15" s="129">
         <f>BL4</f>
         <v>19</v>
       </c>
-      <c r="BM15" s="114"/>
-      <c r="BN15" s="114"/>
-      <c r="BO15" s="112">
+      <c r="BM15" s="130"/>
+      <c r="BN15" s="130"/>
+      <c r="BO15" s="129">
         <f>BO4</f>
         <v>20</v>
       </c>
-      <c r="BP15" s="114"/>
-      <c r="BQ15" s="114"/>
-      <c r="BR15" s="112">
+      <c r="BP15" s="130"/>
+      <c r="BQ15" s="130"/>
+      <c r="BR15" s="129">
         <f>BR4</f>
         <v>21</v>
       </c>
-      <c r="BS15" s="114"/>
-      <c r="BT15" s="114"/>
-      <c r="BU15" s="112">
+      <c r="BS15" s="130"/>
+      <c r="BT15" s="130"/>
+      <c r="BU15" s="129">
         <f>BU4</f>
         <v>22</v>
       </c>
-      <c r="BV15" s="114"/>
-      <c r="BW15" s="114"/>
-      <c r="BX15" s="112">
+      <c r="BV15" s="130"/>
+      <c r="BW15" s="130"/>
+      <c r="BX15" s="129">
         <f>BX4</f>
         <v>23</v>
       </c>
-      <c r="BY15" s="114"/>
-      <c r="BZ15" s="114"/>
-      <c r="CA15" s="112">
+      <c r="BY15" s="130"/>
+      <c r="BZ15" s="130"/>
+      <c r="CA15" s="129">
         <f>CA4</f>
         <v>24</v>
       </c>
-      <c r="CB15" s="114"/>
-      <c r="CC15" s="114"/>
-      <c r="CD15" s="112">
+      <c r="CB15" s="130"/>
+      <c r="CC15" s="130"/>
+      <c r="CD15" s="129">
         <f>CD4</f>
         <v>25</v>
       </c>
-      <c r="CE15" s="114"/>
-      <c r="CF15" s="114"/>
-      <c r="CG15" s="112">
+      <c r="CE15" s="130"/>
+      <c r="CF15" s="130"/>
+      <c r="CG15" s="129">
         <f>CG4</f>
         <v>26</v>
       </c>
-      <c r="CH15" s="114"/>
-      <c r="CI15" s="114"/>
-      <c r="CJ15" s="112">
+      <c r="CH15" s="130"/>
+      <c r="CI15" s="130"/>
+      <c r="CJ15" s="129">
         <f>CJ4</f>
         <v>27</v>
       </c>
-      <c r="CK15" s="114"/>
-      <c r="CL15" s="114"/>
-      <c r="CM15" s="112">
+      <c r="CK15" s="130"/>
+      <c r="CL15" s="130"/>
+      <c r="CM15" s="129">
         <f>CM4</f>
         <v>28</v>
       </c>
-      <c r="CN15" s="114"/>
-      <c r="CO15" s="114"/>
-      <c r="CP15" s="112">
+      <c r="CN15" s="130"/>
+      <c r="CO15" s="130"/>
+      <c r="CP15" s="129">
         <f>CP4</f>
         <v>29</v>
       </c>
-      <c r="CQ15" s="114"/>
-      <c r="CR15" s="114"/>
-      <c r="CS15" s="112">
+      <c r="CQ15" s="130"/>
+      <c r="CR15" s="130"/>
+      <c r="CS15" s="129">
         <f>CS4</f>
         <v>30</v>
       </c>
-      <c r="CT15" s="114"/>
-      <c r="CU15" s="114"/>
-      <c r="CV15" s="112">
+      <c r="CT15" s="130"/>
+      <c r="CU15" s="130"/>
+      <c r="CV15" s="129">
         <f>CV4</f>
         <v>31</v>
       </c>
-      <c r="CW15" s="114"/>
-      <c r="CX15" s="114"/>
-      <c r="CY15" s="112">
+      <c r="CW15" s="130"/>
+      <c r="CX15" s="130"/>
+      <c r="CY15" s="129">
         <f>CY4</f>
         <v>32</v>
       </c>
-      <c r="CZ15" s="114"/>
-      <c r="DA15" s="114"/>
-      <c r="DB15" s="112">
+      <c r="CZ15" s="130"/>
+      <c r="DA15" s="130"/>
+      <c r="DB15" s="129">
         <f>DB4</f>
         <v>33</v>
       </c>
-      <c r="DC15" s="114"/>
-      <c r="DD15" s="114"/>
-      <c r="DE15" s="112">
+      <c r="DC15" s="130"/>
+      <c r="DD15" s="130"/>
+      <c r="DE15" s="129">
         <f>DE4</f>
         <v>34</v>
       </c>
-      <c r="DF15" s="114"/>
-      <c r="DG15" s="114"/>
-      <c r="DH15" s="112">
+      <c r="DF15" s="130"/>
+      <c r="DG15" s="130"/>
+      <c r="DH15" s="129">
         <f>DH4</f>
         <v>35</v>
       </c>
-      <c r="DI15" s="114"/>
-      <c r="DJ15" s="114"/>
-      <c r="DK15" s="112">
+      <c r="DI15" s="130"/>
+      <c r="DJ15" s="130"/>
+      <c r="DK15" s="129">
         <f>DK4</f>
         <v>36</v>
       </c>
-      <c r="DL15" s="114"/>
-      <c r="DM15" s="114"/>
-      <c r="DN15" s="112">
+      <c r="DL15" s="130"/>
+      <c r="DM15" s="130"/>
+      <c r="DN15" s="129">
         <f>DN4</f>
         <v>37</v>
       </c>
-      <c r="DO15" s="114"/>
-      <c r="DP15" s="114"/>
-      <c r="DQ15" s="112">
+      <c r="DO15" s="130"/>
+      <c r="DP15" s="130"/>
+      <c r="DQ15" s="129">
         <f>DQ4</f>
         <v>38</v>
       </c>
-      <c r="DR15" s="114"/>
-      <c r="DS15" s="114"/>
-      <c r="DT15" s="112">
+      <c r="DR15" s="130"/>
+      <c r="DS15" s="130"/>
+      <c r="DT15" s="129">
         <f>DT4</f>
         <v>39</v>
       </c>
-      <c r="DU15" s="114"/>
-      <c r="DV15" s="114"/>
-      <c r="DW15" s="112">
+      <c r="DU15" s="130"/>
+      <c r="DV15" s="130"/>
+      <c r="DW15" s="129">
         <f>DW4</f>
         <v>40</v>
       </c>
-      <c r="DX15" s="114"/>
-      <c r="DY15" s="114"/>
-      <c r="DZ15" s="112">
+      <c r="DX15" s="130"/>
+      <c r="DY15" s="130"/>
+      <c r="DZ15" s="129">
         <f>DZ4</f>
         <v>41</v>
       </c>
-      <c r="EA15" s="114"/>
-      <c r="EB15" s="114"/>
-      <c r="EC15" s="112">
+      <c r="EA15" s="130"/>
+      <c r="EB15" s="130"/>
+      <c r="EC15" s="129">
         <f>EC4</f>
         <v>42</v>
       </c>
-      <c r="ED15" s="114"/>
-      <c r="EE15" s="114"/>
-      <c r="EF15" s="112">
+      <c r="ED15" s="130"/>
+      <c r="EE15" s="130"/>
+      <c r="EF15" s="129">
         <f>EF4</f>
         <v>43</v>
       </c>
-      <c r="EG15" s="114"/>
-      <c r="EH15" s="114"/>
-      <c r="EI15" s="112">
+      <c r="EG15" s="130"/>
+      <c r="EH15" s="130"/>
+      <c r="EI15" s="129">
         <f>EI4</f>
         <v>44</v>
       </c>
-      <c r="EJ15" s="114"/>
-      <c r="EK15" s="114"/>
-      <c r="EL15" s="112">
+      <c r="EJ15" s="130"/>
+      <c r="EK15" s="130"/>
+      <c r="EL15" s="129">
         <f>EL4</f>
         <v>45</v>
       </c>
-      <c r="EM15" s="114"/>
-      <c r="EN15" s="114"/>
-      <c r="EO15" s="112">
+      <c r="EM15" s="130"/>
+      <c r="EN15" s="130"/>
+      <c r="EO15" s="129">
         <f>EO4</f>
         <v>46</v>
       </c>
-      <c r="EP15" s="114"/>
-      <c r="EQ15" s="114"/>
-      <c r="ER15" s="112">
+      <c r="EP15" s="130"/>
+      <c r="EQ15" s="130"/>
+      <c r="ER15" s="129">
         <f>ER4</f>
         <v>47</v>
       </c>
-      <c r="ES15" s="114"/>
-      <c r="ET15" s="114"/>
-      <c r="EU15" s="112">
+      <c r="ES15" s="130"/>
+      <c r="ET15" s="130"/>
+      <c r="EU15" s="129">
         <f>EU4</f>
         <v>48</v>
       </c>
-      <c r="EV15" s="114"/>
-      <c r="EW15" s="114"/>
-      <c r="EX15" s="112">
+      <c r="EV15" s="130"/>
+      <c r="EW15" s="130"/>
+      <c r="EX15" s="129">
         <f>EX4</f>
         <v>49</v>
       </c>
-      <c r="EY15" s="114"/>
-      <c r="EZ15" s="114"/>
-      <c r="FA15" s="112">
+      <c r="EY15" s="130"/>
+      <c r="EZ15" s="130"/>
+      <c r="FA15" s="129">
         <f>FA4</f>
         <v>50</v>
       </c>
-      <c r="FB15" s="114"/>
-      <c r="FC15" s="114"/>
-      <c r="FD15" s="112">
+      <c r="FB15" s="130"/>
+      <c r="FC15" s="130"/>
+      <c r="FD15" s="129">
         <f>FD4</f>
         <v>51</v>
       </c>
-      <c r="FE15" s="114"/>
-      <c r="FF15" s="114"/>
-      <c r="FG15" s="112">
+      <c r="FE15" s="130"/>
+      <c r="FF15" s="130"/>
+      <c r="FG15" s="129">
         <f>FG4</f>
         <v>52</v>
       </c>
-      <c r="FH15" s="114"/>
-      <c r="FI15" s="114"/>
-      <c r="FJ15" s="112">
+      <c r="FH15" s="130"/>
+      <c r="FI15" s="130"/>
+      <c r="FJ15" s="129">
         <f>FJ4</f>
         <v>53</v>
       </c>
-      <c r="FK15" s="114"/>
-      <c r="FL15" s="114"/>
-      <c r="FM15" s="112">
+      <c r="FK15" s="130"/>
+      <c r="FL15" s="130"/>
+      <c r="FM15" s="129">
         <f>FM4</f>
         <v>54</v>
       </c>
-      <c r="FN15" s="114"/>
-      <c r="FO15" s="114"/>
-      <c r="FP15" s="112">
+      <c r="FN15" s="130"/>
+      <c r="FO15" s="130"/>
+      <c r="FP15" s="129">
         <f>FP4</f>
         <v>55</v>
       </c>
-      <c r="FQ15" s="114"/>
-      <c r="FR15" s="114"/>
-      <c r="FS15" s="112">
+      <c r="FQ15" s="130"/>
+      <c r="FR15" s="130"/>
+      <c r="FS15" s="129">
         <f>FS4</f>
         <v>56</v>
       </c>
-      <c r="FT15" s="114"/>
-      <c r="FU15" s="114"/>
-      <c r="FV15" s="112">
+      <c r="FT15" s="130"/>
+      <c r="FU15" s="130"/>
+      <c r="FV15" s="129">
         <f>FV4</f>
         <v>57</v>
       </c>
-      <c r="FW15" s="114"/>
-      <c r="FX15" s="114"/>
-      <c r="FY15" s="112">
+      <c r="FW15" s="130"/>
+      <c r="FX15" s="130"/>
+      <c r="FY15" s="129">
         <f>FY4</f>
         <v>58</v>
       </c>
-      <c r="FZ15" s="114"/>
-      <c r="GA15" s="114"/>
-      <c r="GB15" s="112">
+      <c r="FZ15" s="130"/>
+      <c r="GA15" s="130"/>
+      <c r="GB15" s="129">
         <f>GB4</f>
         <v>59</v>
       </c>
-      <c r="GC15" s="114"/>
-      <c r="GD15" s="114"/>
-      <c r="GE15" s="112">
+      <c r="GC15" s="130"/>
+      <c r="GD15" s="130"/>
+      <c r="GE15" s="129">
         <f>GE4</f>
         <v>60</v>
       </c>
-      <c r="GF15" s="114"/>
-      <c r="GG15" s="114"/>
-      <c r="GH15" s="112">
+      <c r="GF15" s="130"/>
+      <c r="GG15" s="130"/>
+      <c r="GH15" s="129">
         <f>GH4</f>
         <v>61</v>
       </c>
-      <c r="GI15" s="114"/>
-      <c r="GJ15" s="114"/>
-      <c r="GK15" s="112">
+      <c r="GI15" s="130"/>
+      <c r="GJ15" s="130"/>
+      <c r="GK15" s="129">
         <f>GK4</f>
         <v>62</v>
       </c>
-      <c r="GL15" s="114"/>
-      <c r="GM15" s="114"/>
-      <c r="GN15" s="112">
+      <c r="GL15" s="130"/>
+      <c r="GM15" s="130"/>
+      <c r="GN15" s="129">
         <f>GN4</f>
         <v>63</v>
       </c>
-      <c r="GO15" s="114"/>
-      <c r="GP15" s="114"/>
-      <c r="GQ15" s="112">
+      <c r="GO15" s="130"/>
+      <c r="GP15" s="130"/>
+      <c r="GQ15" s="129">
         <f>GQ4</f>
         <v>64</v>
       </c>
-      <c r="GR15" s="114"/>
-      <c r="GS15" s="113"/>
+      <c r="GR15" s="130"/>
+      <c r="GS15" s="131"/>
     </row>
     <row r="16" spans="2:201" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H16" s="25"/>
@@ -8112,7 +8246,7 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" s="115" t="s">
+      <c r="H17" s="126" t="s">
         <v>3</v>
       </c>
       <c r="I17" s="27">
@@ -8891,7 +9025,7 @@
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="H18" s="116"/>
+      <c r="H18" s="127"/>
       <c r="I18" s="1">
         <v>2</v>
       </c>
@@ -9668,7 +9802,7 @@
       <c r="G19">
         <v>3</v>
       </c>
-      <c r="H19" s="116"/>
+      <c r="H19" s="127"/>
       <c r="I19" s="1">
         <v>3</v>
       </c>
@@ -10445,7 +10579,7 @@
       <c r="G20">
         <v>4</v>
       </c>
-      <c r="H20" s="117"/>
+      <c r="H20" s="128"/>
       <c r="I20" s="3">
         <v>4</v>
       </c>
@@ -11219,10 +11353,10 @@
       </c>
     </row>
     <row r="21" spans="7:201" x14ac:dyDescent="0.15">
-      <c r="H21" s="112" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="113"/>
+      <c r="H21" s="129" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="131"/>
       <c r="J21" s="28" t="s">
         <v>7</v>
       </c>
@@ -11546,115 +11680,6 @@
     </row>
   </sheetData>
   <mergeCells count="133">
-    <mergeCell ref="FA4:FC4"/>
-    <mergeCell ref="FD4:FF4"/>
-    <mergeCell ref="FG4:FI4"/>
-    <mergeCell ref="FJ4:FL4"/>
-    <mergeCell ref="FM4:FO4"/>
-    <mergeCell ref="EL4:EN4"/>
-    <mergeCell ref="EO4:EQ4"/>
-    <mergeCell ref="ER4:ET4"/>
-    <mergeCell ref="EU4:EW4"/>
-    <mergeCell ref="EX4:EZ4"/>
-    <mergeCell ref="GQ4:GS4"/>
-    <mergeCell ref="FP4:FR4"/>
-    <mergeCell ref="FS4:FU4"/>
-    <mergeCell ref="FV4:FX4"/>
-    <mergeCell ref="FY4:GA4"/>
-    <mergeCell ref="GB4:GD4"/>
-    <mergeCell ref="GE4:GG4"/>
-    <mergeCell ref="GH4:GJ4"/>
-    <mergeCell ref="GK4:GM4"/>
-    <mergeCell ref="GN4:GP4"/>
-    <mergeCell ref="DB4:DD4"/>
-    <mergeCell ref="DE4:DG4"/>
-    <mergeCell ref="DZ4:EB4"/>
-    <mergeCell ref="EC4:EE4"/>
-    <mergeCell ref="EF4:EH4"/>
-    <mergeCell ref="EI4:EK4"/>
-    <mergeCell ref="DH4:DJ4"/>
-    <mergeCell ref="DK4:DM4"/>
-    <mergeCell ref="DN4:DP4"/>
-    <mergeCell ref="DQ4:DS4"/>
-    <mergeCell ref="DT4:DV4"/>
-    <mergeCell ref="DW4:DY4"/>
-    <mergeCell ref="CA4:CC4"/>
-    <mergeCell ref="CD4:CF4"/>
-    <mergeCell ref="CG4:CI4"/>
-    <mergeCell ref="CJ4:CL4"/>
-    <mergeCell ref="CM4:CO4"/>
-    <mergeCell ref="CP4:CR4"/>
-    <mergeCell ref="CS4:CU4"/>
-    <mergeCell ref="CV4:CX4"/>
-    <mergeCell ref="CY4:DA4"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="BC4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BK4"/>
-    <mergeCell ref="BL4:BN4"/>
-    <mergeCell ref="BO4:BQ4"/>
-    <mergeCell ref="BR4:BT4"/>
-    <mergeCell ref="BU4:BW4"/>
-    <mergeCell ref="BX4:BZ4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AQ4:AS4"/>
-    <mergeCell ref="AT4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="AN15:AP15"/>
-    <mergeCell ref="AQ15:AS15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="BI15:BK15"/>
-    <mergeCell ref="BL15:BN15"/>
-    <mergeCell ref="BO15:BQ15"/>
-    <mergeCell ref="BR15:BT15"/>
-    <mergeCell ref="BU15:BW15"/>
-    <mergeCell ref="AT15:AV15"/>
-    <mergeCell ref="AW15:AY15"/>
-    <mergeCell ref="AZ15:BB15"/>
-    <mergeCell ref="BC15:BE15"/>
-    <mergeCell ref="BF15:BH15"/>
-    <mergeCell ref="CM15:CO15"/>
-    <mergeCell ref="CP15:CR15"/>
-    <mergeCell ref="CS15:CU15"/>
-    <mergeCell ref="CV15:CX15"/>
-    <mergeCell ref="CY15:DA15"/>
-    <mergeCell ref="BX15:BZ15"/>
-    <mergeCell ref="CA15:CC15"/>
-    <mergeCell ref="CD15:CF15"/>
-    <mergeCell ref="CG15:CI15"/>
-    <mergeCell ref="CJ15:CL15"/>
-    <mergeCell ref="DT15:DV15"/>
-    <mergeCell ref="DW15:DY15"/>
-    <mergeCell ref="DZ15:EB15"/>
-    <mergeCell ref="EC15:EE15"/>
-    <mergeCell ref="DB15:DD15"/>
-    <mergeCell ref="DE15:DG15"/>
-    <mergeCell ref="DH15:DJ15"/>
-    <mergeCell ref="DK15:DM15"/>
-    <mergeCell ref="DN15:DP15"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="GN15:GP15"/>
     <mergeCell ref="GQ15:GS15"/>
@@ -11679,6 +11704,115 @@
     <mergeCell ref="EO15:EQ15"/>
     <mergeCell ref="ER15:ET15"/>
     <mergeCell ref="DQ15:DS15"/>
+    <mergeCell ref="DT15:DV15"/>
+    <mergeCell ref="DW15:DY15"/>
+    <mergeCell ref="DZ15:EB15"/>
+    <mergeCell ref="EC15:EE15"/>
+    <mergeCell ref="DB15:DD15"/>
+    <mergeCell ref="DE15:DG15"/>
+    <mergeCell ref="DH15:DJ15"/>
+    <mergeCell ref="DK15:DM15"/>
+    <mergeCell ref="DN15:DP15"/>
+    <mergeCell ref="CM15:CO15"/>
+    <mergeCell ref="CP15:CR15"/>
+    <mergeCell ref="CS15:CU15"/>
+    <mergeCell ref="CV15:CX15"/>
+    <mergeCell ref="CY15:DA15"/>
+    <mergeCell ref="BX15:BZ15"/>
+    <mergeCell ref="CA15:CC15"/>
+    <mergeCell ref="CD15:CF15"/>
+    <mergeCell ref="CG15:CI15"/>
+    <mergeCell ref="CJ15:CL15"/>
+    <mergeCell ref="BI15:BK15"/>
+    <mergeCell ref="BL15:BN15"/>
+    <mergeCell ref="BO15:BQ15"/>
+    <mergeCell ref="BR15:BT15"/>
+    <mergeCell ref="BU15:BW15"/>
+    <mergeCell ref="AT15:AV15"/>
+    <mergeCell ref="AW15:AY15"/>
+    <mergeCell ref="AZ15:BB15"/>
+    <mergeCell ref="BC15:BE15"/>
+    <mergeCell ref="BF15:BH15"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="AN15:AP15"/>
+    <mergeCell ref="AQ15:AS15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="AT4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="BC4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BK4"/>
+    <mergeCell ref="BL4:BN4"/>
+    <mergeCell ref="BO4:BQ4"/>
+    <mergeCell ref="BR4:BT4"/>
+    <mergeCell ref="BU4:BW4"/>
+    <mergeCell ref="BX4:BZ4"/>
+    <mergeCell ref="CA4:CC4"/>
+    <mergeCell ref="CD4:CF4"/>
+    <mergeCell ref="CG4:CI4"/>
+    <mergeCell ref="CJ4:CL4"/>
+    <mergeCell ref="CM4:CO4"/>
+    <mergeCell ref="CP4:CR4"/>
+    <mergeCell ref="CS4:CU4"/>
+    <mergeCell ref="CV4:CX4"/>
+    <mergeCell ref="CY4:DA4"/>
+    <mergeCell ref="DB4:DD4"/>
+    <mergeCell ref="DE4:DG4"/>
+    <mergeCell ref="DZ4:EB4"/>
+    <mergeCell ref="EC4:EE4"/>
+    <mergeCell ref="EF4:EH4"/>
+    <mergeCell ref="EI4:EK4"/>
+    <mergeCell ref="DH4:DJ4"/>
+    <mergeCell ref="DK4:DM4"/>
+    <mergeCell ref="DN4:DP4"/>
+    <mergeCell ref="DQ4:DS4"/>
+    <mergeCell ref="DT4:DV4"/>
+    <mergeCell ref="DW4:DY4"/>
+    <mergeCell ref="GQ4:GS4"/>
+    <mergeCell ref="FP4:FR4"/>
+    <mergeCell ref="FS4:FU4"/>
+    <mergeCell ref="FV4:FX4"/>
+    <mergeCell ref="FY4:GA4"/>
+    <mergeCell ref="GB4:GD4"/>
+    <mergeCell ref="GE4:GG4"/>
+    <mergeCell ref="GH4:GJ4"/>
+    <mergeCell ref="GK4:GM4"/>
+    <mergeCell ref="GN4:GP4"/>
+    <mergeCell ref="FA4:FC4"/>
+    <mergeCell ref="FD4:FF4"/>
+    <mergeCell ref="FG4:FI4"/>
+    <mergeCell ref="FJ4:FL4"/>
+    <mergeCell ref="FM4:FO4"/>
+    <mergeCell ref="EL4:EN4"/>
+    <mergeCell ref="EO4:EQ4"/>
+    <mergeCell ref="ER4:ET4"/>
+    <mergeCell ref="EU4:EW4"/>
+    <mergeCell ref="EX4:EZ4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J17:L20">
@@ -12749,10 +12883,10 @@
       <c r="G2" s="41">
         <v>0</v>
       </c>
-      <c r="H2" s="112" t="s">
+      <c r="H2" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="113"/>
+      <c r="I2" s="131"/>
       <c r="J2" s="38">
         <f>G2+1</f>
         <v>1</v>
@@ -13139,10 +13273,10 @@
       <c r="GS2" s="49"/>
     </row>
     <row r="3" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="128">
+      <c r="C3" s="139">
         <v>1</v>
       </c>
       <c r="D3" s="86">
@@ -13154,10 +13288,10 @@
       <c r="F3" s="88">
         <v>0.11700000000000001</v>
       </c>
-      <c r="H3" s="118" t="s">
+      <c r="H3" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="127"/>
+      <c r="I3" s="138"/>
       <c r="J3" s="7">
         <f>Data!J5</f>
         <v>1</v>
@@ -13928,8 +14062,8 @@
       </c>
     </row>
     <row r="4" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="132"/>
-      <c r="C4" s="129"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="140"/>
       <c r="D4" s="89">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -14711,8 +14845,8 @@
       </c>
     </row>
     <row r="5" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="132"/>
-      <c r="C5" s="129"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="140"/>
       <c r="D5" s="89">
         <v>0.15</v>
       </c>
@@ -15494,8 +15628,8 @@
       </c>
     </row>
     <row r="6" spans="2:201" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="132"/>
-      <c r="C6" s="130"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="141"/>
       <c r="D6" s="89">
         <v>0.98</v>
       </c>
@@ -16277,8 +16411,8 @@
       </c>
     </row>
     <row r="7" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="132"/>
-      <c r="C7" s="128">
+      <c r="B7" s="143"/>
+      <c r="C7" s="139">
         <v>2</v>
       </c>
       <c r="D7" s="86">
@@ -16290,10 +16424,10 @@
       <c r="F7" s="88">
         <v>0.121</v>
       </c>
-      <c r="H7" s="134" t="s">
+      <c r="H7" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="135"/>
+      <c r="I7" s="146"/>
       <c r="J7" s="6">
         <f>IF(Data!J9="〇",1,0)</f>
         <v>1</v>
@@ -16872,8 +17006,8 @@
       <c r="GS7" s="4"/>
     </row>
     <row r="8" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="132"/>
-      <c r="C8" s="129"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="89">
         <v>0.29399999999999998</v>
       </c>
@@ -16885,8 +17019,8 @@
       </c>
     </row>
     <row r="9" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="132"/>
-      <c r="C9" s="129"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="140"/>
       <c r="D9" s="89">
         <v>0.34599999999999997</v>
       </c>
@@ -16897,10 +17031,10 @@
         <v>0.218</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="136" t="s">
+      <c r="H9" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="135"/>
+      <c r="I9" s="146"/>
       <c r="J9" s="50">
         <v>1</v>
       </c>
@@ -17479,8 +17613,8 @@
       </c>
     </row>
     <row r="10" spans="2:201" s="80" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="132"/>
-      <c r="C10" s="130"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="141"/>
       <c r="D10" s="89">
         <v>0.191</v>
       </c>
@@ -17491,10 +17625,10 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="G10" s="77"/>
-      <c r="H10" s="137" t="s">
+      <c r="H10" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="138"/>
+      <c r="I10" s="149"/>
       <c r="J10" s="78">
         <f>1/(1+EXP(-SUMPRODUCT(J3:L6,$D$3:$F$6)))</f>
         <v>0.89604197061498014</v>
@@ -18265,8 +18399,8 @@
       </c>
     </row>
     <row r="11" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="132"/>
-      <c r="C11" s="128">
+      <c r="B11" s="143"/>
+      <c r="C11" s="139">
         <v>3</v>
       </c>
       <c r="D11" s="86">
@@ -18475,8 +18609,8 @@
       <c r="GS11" s="61"/>
     </row>
     <row r="12" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="132"/>
-      <c r="C12" s="129"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="140"/>
       <c r="D12" s="89">
         <v>0.89200000000000002</v>
       </c>
@@ -18683,8 +18817,8 @@
       <c r="GS12" s="63"/>
     </row>
     <row r="13" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="132"/>
-      <c r="C13" s="129"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="140"/>
       <c r="D13" s="89">
         <v>0.93600000000000005</v>
       </c>
@@ -18889,8 +19023,8 @@
       <c r="GS13" s="24"/>
     </row>
     <row r="14" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="132"/>
-      <c r="C14" s="130"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="141"/>
       <c r="D14" s="92">
         <v>3.7999999999999999E-2</v>
       </c>
@@ -19097,7 +19231,7 @@
       <c r="GS14" s="24"/>
     </row>
     <row r="15" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="133"/>
+      <c r="B15" s="144"/>
       <c r="C15" s="37" t="s">
         <v>26</v>
       </c>
@@ -19307,7 +19441,7 @@
       <c r="GS15" s="24"/>
     </row>
     <row r="16" spans="2:201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="131" t="s">
+      <c r="B16" s="142" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="6">
@@ -19323,10 +19457,10 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="135"/>
+      <c r="H16" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="146"/>
       <c r="J16" s="50">
         <v>1</v>
       </c>
@@ -19777,7 +19911,7 @@
       <c r="GS16" s="39"/>
     </row>
     <row r="17" spans="2:202" s="80" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="132"/>
+      <c r="B17" s="143"/>
       <c r="C17" s="36">
         <v>2</v>
       </c>
@@ -19791,10 +19925,10 @@
         <v>0.84199999999999997</v>
       </c>
       <c r="G17" s="77"/>
-      <c r="H17" s="137" t="s">
+      <c r="H17" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="138"/>
+      <c r="I17" s="149"/>
       <c r="J17" s="81">
         <f>1/(1+EXP(-SUMPRODUCT($D$16:$F$16,J10:L10)+$D$18))</f>
         <v>0.52916847821762025</v>
@@ -20373,7 +20507,7 @@
       <c r="GS17" s="78"/>
     </row>
     <row r="18" spans="2:202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="133"/>
+      <c r="B18" s="144"/>
       <c r="C18" s="37" t="s">
         <v>26</v>
       </c>
@@ -21573,11 +21707,11 @@
       </c>
       <c r="H2" s="51"/>
       <c r="I2" s="85"/>
-      <c r="J2" s="140" t="s">
+      <c r="J2" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="141"/>
-      <c r="L2" s="142"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="153"/>
       <c r="N2" s="109" t="s">
         <v>24</v>
       </c>
@@ -21585,11 +21719,11 @@
       <c r="P2" s="109"/>
       <c r="S2" s="51"/>
       <c r="T2" s="85"/>
-      <c r="U2" s="140" t="s">
+      <c r="U2" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="141"/>
-      <c r="W2" s="142"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="153"/>
       <c r="Y2" s="109" t="s">
         <v>24</v>
       </c>
@@ -21597,10 +21731,10 @@
       <c r="AA2" s="109"/>
     </row>
     <row r="3" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="128">
+      <c r="C3" s="139">
         <v>1</v>
       </c>
       <c r="D3" s="86">
@@ -21663,8 +21797,8 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="132"/>
-      <c r="C4" s="129"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="140"/>
       <c r="D4" s="89">
         <f>例題!D4</f>
         <v>7.9000000000000001E-2</v>
@@ -21725,8 +21859,8 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="132"/>
-      <c r="C5" s="129"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="140"/>
       <c r="D5" s="89">
         <f>例題!D5</f>
         <v>0.15</v>
@@ -21787,8 +21921,8 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="132"/>
-      <c r="C6" s="130"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="141"/>
       <c r="D6" s="89">
         <f>例題!D6</f>
         <v>0.98</v>
@@ -21849,8 +21983,8 @@
       </c>
     </row>
     <row r="7" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="132"/>
-      <c r="C7" s="128">
+      <c r="B7" s="143"/>
+      <c r="C7" s="139">
         <v>2</v>
       </c>
       <c r="D7" s="86">
@@ -21879,8 +22013,8 @@
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="132"/>
-      <c r="C8" s="129"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="89">
         <f>例題!D8</f>
         <v>0.29399999999999998</v>
@@ -21895,8 +22029,8 @@
       </c>
     </row>
     <row r="9" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="132"/>
-      <c r="C9" s="129"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="140"/>
       <c r="D9" s="89">
         <f>例題!D9</f>
         <v>0.34599999999999997</v>
@@ -21910,10 +22044,10 @@
         <v>0.218</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="136" t="s">
+      <c r="H9" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="135"/>
+      <c r="I9" s="146"/>
       <c r="J9" s="50">
         <v>1</v>
       </c>
@@ -21923,10 +22057,10 @@
       <c r="L9" s="50">
         <v>3</v>
       </c>
-      <c r="S9" s="136" t="s">
+      <c r="S9" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="T9" s="135"/>
+      <c r="T9" s="146"/>
       <c r="U9" s="50">
         <v>1</v>
       </c>
@@ -21938,8 +22072,8 @@
       </c>
     </row>
     <row r="10" spans="2:27" s="80" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="132"/>
-      <c r="C10" s="130"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="141"/>
       <c r="D10" s="89">
         <f>例題!D10</f>
         <v>0.191</v>
@@ -21953,10 +22087,10 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="G10" s="77"/>
-      <c r="H10" s="137" t="s">
+      <c r="H10" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="138"/>
+      <c r="I10" s="149"/>
       <c r="J10" s="78">
         <f>1/(1+EXP(-SUMPRODUCT(J3:L6,$D$3:$F$6)+$D$15))</f>
         <v>0.73321580524081087</v>
@@ -21969,10 +22103,10 @@
         <f>1/(1+EXP(-SUMPRODUCT(J3:L6,$D$11:$F$14)+$F$15))</f>
         <v>0.91043843383473577</v>
       </c>
-      <c r="S10" s="137" t="s">
+      <c r="S10" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="138"/>
+      <c r="T10" s="149"/>
       <c r="U10" s="78">
         <f>1/(1+EXP(-SUMPRODUCT(U3:W6,$D$3:$F$6)+$D$15))</f>
         <v>0.70453757620424129</v>
@@ -21987,8 +22121,8 @@
       </c>
     </row>
     <row r="11" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="132"/>
-      <c r="C11" s="128">
+      <c r="B11" s="143"/>
+      <c r="C11" s="139">
         <v>3</v>
       </c>
       <c r="D11" s="86">
@@ -22016,8 +22150,8 @@
       <c r="W11" s="58"/>
     </row>
     <row r="12" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="132"/>
-      <c r="C12" s="129"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="140"/>
       <c r="D12" s="89">
         <f>例題!D12</f>
         <v>0.89200000000000002</v>
@@ -22043,8 +22177,8 @@
       <c r="W12" s="55"/>
     </row>
     <row r="13" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="132"/>
-      <c r="C13" s="129"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="140"/>
       <c r="D13" s="89">
         <f>例題!D13</f>
         <v>0.93600000000000005</v>
@@ -22066,8 +22200,8 @@
       <c r="W13" s="23"/>
     </row>
     <row r="14" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="132"/>
-      <c r="C14" s="130"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="141"/>
       <c r="D14" s="92">
         <f>例題!D14</f>
         <v>3.7999999999999999E-2</v>
@@ -22093,7 +22227,7 @@
       <c r="W14" s="23"/>
     </row>
     <row r="15" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="133"/>
+      <c r="B15" s="144"/>
       <c r="C15" s="37" t="s">
         <v>26</v>
       </c>
@@ -22122,7 +22256,7 @@
       <c r="W15" s="23"/>
     </row>
     <row r="16" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="131" t="s">
+      <c r="B16" s="142" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="6">
@@ -22141,10 +22275,10 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="135"/>
+      <c r="H16" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="146"/>
       <c r="J16" s="50">
         <v>1</v>
       </c>
@@ -22152,10 +22286,10 @@
         <v>2</v>
       </c>
       <c r="L16" s="107"/>
-      <c r="S16" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="T16" s="135"/>
+      <c r="S16" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" s="146"/>
       <c r="U16" s="50">
         <v>1</v>
       </c>
@@ -22165,7 +22299,7 @@
       <c r="W16" s="107"/>
     </row>
     <row r="17" spans="2:24" s="80" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="132"/>
+      <c r="B17" s="143"/>
       <c r="C17" s="36">
         <v>2</v>
       </c>
@@ -22182,10 +22316,10 @@
         <v>0.84199999999999997</v>
       </c>
       <c r="G17" s="77"/>
-      <c r="H17" s="137" t="s">
+      <c r="H17" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="138"/>
+      <c r="I17" s="149"/>
       <c r="J17" s="81">
         <f>1/(1+EXP(-SUMPRODUCT($D$16:$F$16,J10:L10)+$D$18))</f>
         <v>0.50440961373892912</v>
@@ -22195,10 +22329,10 @@
         <v>0.65493675924345807</v>
       </c>
       <c r="L17" s="108"/>
-      <c r="S17" s="137" t="s">
+      <c r="S17" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="T17" s="138"/>
+      <c r="T17" s="149"/>
       <c r="U17" s="81">
         <f>1/(1+EXP(-SUMPRODUCT($D$16:$F$16,U10:W10)+$D$18))</f>
         <v>0.41501278818443921</v>
@@ -22210,7 +22344,7 @@
       <c r="W17" s="108"/>
     </row>
     <row r="18" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="133"/>
+      <c r="B18" s="144"/>
       <c r="C18" s="37" t="s">
         <v>26</v>
       </c>
@@ -22258,10 +22392,10 @@
       <c r="X19" s="2"/>
     </row>
     <row r="20" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H20" s="139" t="s">
+      <c r="H20" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="139"/>
+      <c r="I20" s="150"/>
       <c r="J20" s="36" t="str">
         <f>IF(J17&gt;=K17,"〇","×")</f>
         <v>×</v>
@@ -22269,10 +22403,10 @@
       <c r="K20" s="84"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="S20" s="139" t="s">
+      <c r="S20" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="T20" s="139"/>
+      <c r="T20" s="150"/>
       <c r="U20" s="36" t="str">
         <f>IF(U17&gt;=V17,"〇","×")</f>
         <v>×</v>
@@ -22322,6 +22456,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -22333,12 +22473,6 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C11:C14"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="N3:P6">
